--- a/Code/Results/Cases/Case_3_244/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_244/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9966769956112501</v>
+        <v>1.031443603156359</v>
       </c>
       <c r="D2">
-        <v>1.020705800035491</v>
+        <v>1.039969453658163</v>
       </c>
       <c r="E2">
-        <v>1.003465135077057</v>
+        <v>1.031004155229597</v>
       </c>
       <c r="F2">
-        <v>1.027407702022724</v>
+        <v>1.050738102137029</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048210956985594</v>
+        <v>1.037060002326932</v>
       </c>
       <c r="J2">
-        <v>1.018957553482855</v>
+        <v>1.036579299383502</v>
       </c>
       <c r="K2">
-        <v>1.031884014347441</v>
+        <v>1.042753132114885</v>
       </c>
       <c r="L2">
-        <v>1.014876405236478</v>
+        <v>1.033813528208025</v>
       </c>
       <c r="M2">
-        <v>1.038497965847004</v>
+        <v>1.053491546320871</v>
       </c>
       <c r="N2">
-        <v>1.009930776095377</v>
+        <v>1.016125504902895</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002215375717593</v>
+        <v>1.032588110826149</v>
       </c>
       <c r="D3">
-        <v>1.024875928181824</v>
+        <v>1.04083911454737</v>
       </c>
       <c r="E3">
-        <v>1.007960218327316</v>
+        <v>1.03198163788482</v>
       </c>
       <c r="F3">
-        <v>1.032191256671881</v>
+        <v>1.051759249168251</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049946178920394</v>
+        <v>1.037323290466817</v>
       </c>
       <c r="J3">
-        <v>1.022645829009041</v>
+        <v>1.037364691446546</v>
       </c>
       <c r="K3">
-        <v>1.035200111101393</v>
+        <v>1.043432964176908</v>
       </c>
       <c r="L3">
-        <v>1.01849224986229</v>
+        <v>1.034599030524216</v>
       </c>
       <c r="M3">
-        <v>1.04242816858093</v>
+        <v>1.054324662406226</v>
       </c>
       <c r="N3">
-        <v>1.011190385913002</v>
+        <v>1.016390138025093</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005713974956769</v>
+        <v>1.03332857581301</v>
       </c>
       <c r="D4">
-        <v>1.027511659159664</v>
+        <v>1.041401459332506</v>
       </c>
       <c r="E4">
-        <v>1.010806155409626</v>
+        <v>1.032614396645437</v>
       </c>
       <c r="F4">
-        <v>1.03521693388484</v>
+        <v>1.052419888452915</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051028178810585</v>
+        <v>1.037491843822578</v>
       </c>
       <c r="J4">
-        <v>1.024972637499302</v>
+        <v>1.037872267439767</v>
       </c>
       <c r="K4">
-        <v>1.037289005386373</v>
+        <v>1.043871840602556</v>
       </c>
       <c r="L4">
-        <v>1.020775885960083</v>
+        <v>1.035106953446458</v>
       </c>
       <c r="M4">
-        <v>1.044908118503774</v>
+        <v>1.054863026032898</v>
       </c>
       <c r="N4">
-        <v>1.011984544981091</v>
+        <v>1.016561042584708</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007165279661243</v>
+        <v>1.033639842455116</v>
       </c>
       <c r="D5">
-        <v>1.028605293837232</v>
+        <v>1.041637777062622</v>
       </c>
       <c r="E5">
-        <v>1.01198819089924</v>
+        <v>1.032880471333073</v>
       </c>
       <c r="F5">
-        <v>1.036472913210224</v>
+        <v>1.05269759461534</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051473564155645</v>
+        <v>1.03756226984118</v>
       </c>
       <c r="J5">
-        <v>1.02593706684811</v>
+        <v>1.038085503001106</v>
       </c>
       <c r="K5">
-        <v>1.038154051818369</v>
+        <v>1.044056100009341</v>
       </c>
       <c r="L5">
-        <v>1.021723023576185</v>
+        <v>1.035320400754291</v>
       </c>
       <c r="M5">
-        <v>1.045936123585808</v>
+        <v>1.055089182174452</v>
       </c>
       <c r="N5">
-        <v>1.012313588460354</v>
+        <v>1.016632811696215</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007407840471645</v>
+        <v>1.033692104067035</v>
       </c>
       <c r="D6">
-        <v>1.028788089730865</v>
+        <v>1.0416774504505</v>
       </c>
       <c r="E6">
-        <v>1.012185832704189</v>
+        <v>1.032925150137057</v>
       </c>
       <c r="F6">
-        <v>1.03668287663655</v>
+        <v>1.052744221142784</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051547797826978</v>
+        <v>1.037574069237854</v>
       </c>
       <c r="J6">
-        <v>1.026098207034614</v>
+        <v>1.038121297438294</v>
       </c>
       <c r="K6">
-        <v>1.038298540793579</v>
+        <v>1.044087023653026</v>
       </c>
       <c r="L6">
-        <v>1.021881309972612</v>
+        <v>1.035356234606629</v>
       </c>
       <c r="M6">
-        <v>1.046107891488996</v>
+        <v>1.055127144704022</v>
       </c>
       <c r="N6">
-        <v>1.012368558655662</v>
+        <v>1.016644857404123</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005733442899426</v>
+        <v>1.033332735069442</v>
       </c>
       <c r="D7">
-        <v>1.027526328322996</v>
+        <v>1.041404617383286</v>
       </c>
       <c r="E7">
-        <v>1.010822005613097</v>
+        <v>1.032617951701081</v>
       </c>
       <c r="F7">
-        <v>1.035233778442051</v>
+        <v>1.052423599280742</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051034166990205</v>
+        <v>1.037492786563199</v>
       </c>
       <c r="J7">
-        <v>1.02498557762656</v>
+        <v>1.037875117290415</v>
       </c>
       <c r="K7">
-        <v>1.037300615131535</v>
+        <v>1.043874303645444</v>
       </c>
       <c r="L7">
-        <v>1.020788591697239</v>
+        <v>1.035109805867638</v>
       </c>
       <c r="M7">
-        <v>1.044921911283297</v>
+        <v>1.054866048617893</v>
       </c>
       <c r="N7">
-        <v>1.011988960388004</v>
+        <v>1.016562001878132</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9985668778429728</v>
+        <v>1.031830417859163</v>
       </c>
       <c r="D8">
-        <v>1.022128431416945</v>
+        <v>1.040263439074016</v>
       </c>
       <c r="E8">
-        <v>1.004997627202079</v>
+        <v>1.031334445889014</v>
       </c>
       <c r="F8">
-        <v>1.029039140690454</v>
+        <v>1.051083226575734</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048806007247716</v>
+        <v>1.03714935685155</v>
       </c>
       <c r="J8">
-        <v>1.020216733759279</v>
+        <v>1.036844855931184</v>
       </c>
       <c r="K8">
-        <v>1.033016774793173</v>
+        <v>1.042983095843988</v>
       </c>
       <c r="L8">
-        <v>1.016110325345717</v>
+        <v>1.034079064906447</v>
       </c>
       <c r="M8">
-        <v>1.039839616599731</v>
+        <v>1.053773250516052</v>
       </c>
       <c r="N8">
-        <v>1.010360905494085</v>
+        <v>1.016215007405816</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9852447437954978</v>
+        <v>1.029182269696606</v>
       </c>
       <c r="D9">
-        <v>1.012109815088206</v>
+        <v>1.038249599761145</v>
       </c>
       <c r="E9">
-        <v>0.9942248589089221</v>
+        <v>1.029074744644662</v>
       </c>
       <c r="F9">
-        <v>1.017559119460072</v>
+        <v>1.048720466072182</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044553592906639</v>
+        <v>1.036530318145549</v>
       </c>
       <c r="J9">
-        <v>1.011329528077163</v>
+        <v>1.035024602155403</v>
       </c>
       <c r="K9">
-        <v>1.025009427517365</v>
+        <v>1.041404856476353</v>
       </c>
       <c r="L9">
-        <v>1.007412333861366</v>
+        <v>1.032260080235918</v>
       </c>
       <c r="M9">
-        <v>1.030373594116212</v>
+        <v>1.051842098878015</v>
       </c>
       <c r="N9">
-        <v>1.007323323417196</v>
+        <v>1.01560102435885</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.975833196224874</v>
+        <v>1.027416183114159</v>
       </c>
       <c r="D10">
-        <v>1.005048772692582</v>
+        <v>1.036905066488834</v>
       </c>
       <c r="E10">
-        <v>0.986655990072324</v>
+        <v>1.027569608114961</v>
       </c>
       <c r="F10">
-        <v>1.009479191011179</v>
+        <v>1.047144713396352</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041478769674779</v>
+        <v>1.036108302167639</v>
       </c>
       <c r="J10">
-        <v>1.005039574692139</v>
+        <v>1.033807849717614</v>
       </c>
       <c r="K10">
-        <v>1.019327464425033</v>
+        <v>1.040347434480953</v>
       </c>
       <c r="L10">
-        <v>1.001270428181217</v>
+        <v>1.031045600392612</v>
       </c>
       <c r="M10">
-        <v>1.023679379259238</v>
+        <v>1.050550960147769</v>
       </c>
       <c r="N10">
-        <v>1.005171586674326</v>
+        <v>1.015189995581772</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9716162778969238</v>
+        <v>1.026651277011971</v>
       </c>
       <c r="D11">
-        <v>1.001890454374027</v>
+        <v>1.036322399753142</v>
       </c>
       <c r="E11">
-        <v>0.9832757575638185</v>
+        <v>1.026918179034678</v>
       </c>
       <c r="F11">
-        <v>1.00586762191055</v>
+        <v>1.04646225529266</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040085316309694</v>
+        <v>1.035923353211542</v>
       </c>
       <c r="J11">
-        <v>1.00221945412118</v>
+        <v>1.033280205961725</v>
       </c>
       <c r="K11">
-        <v>1.016776807337452</v>
+        <v>1.039888308530279</v>
       </c>
       <c r="L11">
-        <v>0.9985201140270525</v>
+        <v>1.030519280193435</v>
       </c>
       <c r="M11">
-        <v>1.020679725367884</v>
+        <v>1.049991001977276</v>
       </c>
       <c r="N11">
-        <v>1.004206526088586</v>
+        <v>1.015011609822848</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.970027146204678</v>
+        <v>1.026367128463902</v>
       </c>
       <c r="D12">
-        <v>1.000701204955373</v>
+        <v>1.036105899832338</v>
       </c>
       <c r="E12">
-        <v>0.9820036979833745</v>
+        <v>1.026676254633032</v>
       </c>
       <c r="F12">
-        <v>1.00450806360949</v>
+        <v>1.046208737570287</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039557923434888</v>
+        <v>1.035854322333725</v>
       </c>
       <c r="J12">
-        <v>1.001156502067524</v>
+        <v>1.033084097508294</v>
       </c>
       <c r="K12">
-        <v>1.015814983303959</v>
+        <v>1.039717579805325</v>
       </c>
       <c r="L12">
-        <v>0.9974839957216368</v>
+        <v>1.03032371447963</v>
       </c>
       <c r="M12">
-        <v>1.019549402886944</v>
+        <v>1.049782875065798</v>
       </c>
       <c r="N12">
-        <v>1.003842740547386</v>
+        <v>1.014945288052013</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9703690767867952</v>
+        <v>1.026428080599342</v>
       </c>
       <c r="D13">
-        <v>1.00095704830611</v>
+        <v>1.036152343041364</v>
       </c>
       <c r="E13">
-        <v>0.9822773229797467</v>
+        <v>1.026728146192968</v>
       </c>
       <c r="F13">
-        <v>1.004800529451666</v>
+        <v>1.046263119001361</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039671502783664</v>
+        <v>1.035869144743628</v>
       </c>
       <c r="J13">
-        <v>1.001385223172487</v>
+        <v>1.033126168789733</v>
       </c>
       <c r="K13">
-        <v>1.016021963353599</v>
+        <v>1.039754210249857</v>
       </c>
       <c r="L13">
-        <v>0.9977069191403903</v>
+        <v>1.030365667026981</v>
       </c>
       <c r="M13">
-        <v>1.019792606269958</v>
+        <v>1.049827525041789</v>
       </c>
       <c r="N13">
-        <v>1.003921019753914</v>
+        <v>1.01495951707552</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9714853936445528</v>
+        <v>1.026627789791531</v>
       </c>
       <c r="D14">
-        <v>1.001792485118768</v>
+        <v>1.036304505262944</v>
       </c>
       <c r="E14">
-        <v>0.9831709514494131</v>
+        <v>1.026898180565412</v>
       </c>
       <c r="F14">
-        <v>1.005755615520265</v>
+        <v>1.046441299897521</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040041924753727</v>
+        <v>1.035917653883103</v>
       </c>
       <c r="J14">
-        <v>1.002131910698058</v>
+        <v>1.033263997987818</v>
       </c>
       <c r="K14">
-        <v>1.016697601379141</v>
+        <v>1.039874199896064</v>
       </c>
       <c r="L14">
-        <v>0.9984347699428351</v>
+        <v>1.030503116039285</v>
       </c>
       <c r="M14">
-        <v>1.020586627087256</v>
+        <v>1.049973800867363</v>
       </c>
       <c r="N14">
-        <v>1.00417656585762</v>
+        <v>1.015006128896965</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9721701275178053</v>
+        <v>1.026750833413268</v>
       </c>
       <c r="D15">
-        <v>1.002305060543827</v>
+        <v>1.036398247942362</v>
       </c>
       <c r="E15">
-        <v>0.9837193276950509</v>
+        <v>1.027002950351564</v>
       </c>
       <c r="F15">
-        <v>1.006341647882287</v>
+        <v>1.046551080050304</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04026883991212</v>
+        <v>1.035947497889527</v>
       </c>
       <c r="J15">
-        <v>1.002589895138453</v>
+        <v>1.033348903442531</v>
       </c>
       <c r="K15">
-        <v>1.017111950667892</v>
+        <v>1.039948104436003</v>
       </c>
       <c r="L15">
-        <v>0.9988812698344148</v>
+        <v>1.030587794024922</v>
       </c>
       <c r="M15">
-        <v>1.021073684242731</v>
+        <v>1.050063908529631</v>
       </c>
       <c r="N15">
-        <v>1.004333301692081</v>
+        <v>1.015034839844418</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9761099498852246</v>
+        <v>1.027466943516504</v>
       </c>
       <c r="D16">
-        <v>1.005256175300766</v>
+        <v>1.036943726137846</v>
       </c>
       <c r="E16">
-        <v>0.9868780713399492</v>
+        <v>1.027612847704257</v>
       </c>
       <c r="F16">
-        <v>1.009716408598494</v>
+        <v>1.047190002771233</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041569901384229</v>
+        <v>1.03612052998293</v>
       </c>
       <c r="J16">
-        <v>1.005224625430696</v>
+        <v>1.033842851171138</v>
       </c>
       <c r="K16">
-        <v>1.019494771185393</v>
+        <v>1.040377878684606</v>
       </c>
       <c r="L16">
-        <v>1.001450970202301</v>
+        <v>1.031080521167991</v>
       </c>
       <c r="M16">
-        <v>1.023876249672611</v>
+        <v>1.050588104021309</v>
       </c>
       <c r="N16">
-        <v>1.00523490624715</v>
+        <v>1.015201825859334</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9785423554854711</v>
+        <v>1.027916091511164</v>
       </c>
       <c r="D17">
-        <v>1.007079682394866</v>
+        <v>1.037285762904127</v>
       </c>
       <c r="E17">
-        <v>0.9888312247257667</v>
+        <v>1.027995501530264</v>
       </c>
       <c r="F17">
-        <v>1.011802332934291</v>
+        <v>1.047590742573713</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042369087089607</v>
+        <v>1.036228475834881</v>
       </c>
       <c r="J17">
-        <v>1.006850846632315</v>
+        <v>1.034152481771146</v>
       </c>
       <c r="K17">
-        <v>1.020964707471958</v>
+        <v>1.040647128428707</v>
       </c>
       <c r="L17">
-        <v>1.003037958587417</v>
+        <v>1.031389477096521</v>
       </c>
       <c r="M17">
-        <v>1.025606541378819</v>
+        <v>1.050916680420765</v>
       </c>
       <c r="N17">
-        <v>1.005791321742323</v>
+        <v>1.015306462566801</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9799475769522783</v>
+        <v>1.028178054770012</v>
       </c>
       <c r="D18">
-        <v>1.00813364267228</v>
+        <v>1.037485221350229</v>
       </c>
       <c r="E18">
-        <v>0.9899606160142564</v>
+        <v>1.028218726488903</v>
       </c>
       <c r="F18">
-        <v>1.013008202475074</v>
+        <v>1.047824473180114</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042829287901922</v>
+        <v>1.036291225283121</v>
       </c>
       <c r="J18">
-        <v>1.007790147419828</v>
+        <v>1.034333008657705</v>
       </c>
       <c r="K18">
-        <v>1.021813440424477</v>
+        <v>1.040804056157433</v>
       </c>
       <c r="L18">
-        <v>1.003954922091991</v>
+        <v>1.031569643209221</v>
       </c>
       <c r="M18">
-        <v>1.026606112587111</v>
+        <v>1.051108247954979</v>
       </c>
       <c r="N18">
-        <v>1.006112674547639</v>
+        <v>1.015367456070099</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9804244645117108</v>
+        <v>1.028267374604541</v>
       </c>
       <c r="D19">
-        <v>1.008491405071531</v>
+        <v>1.037553223761045</v>
       </c>
       <c r="E19">
-        <v>0.9903440685367331</v>
+        <v>1.028294845441132</v>
       </c>
       <c r="F19">
-        <v>1.013417570239082</v>
+        <v>1.047904166888578</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042985209105425</v>
+        <v>1.036312585005646</v>
       </c>
       <c r="J19">
-        <v>1.008108883286297</v>
+        <v>1.034394550888987</v>
       </c>
       <c r="K19">
-        <v>1.022101392109625</v>
+        <v>1.040857543927865</v>
       </c>
       <c r="L19">
-        <v>1.004266132843977</v>
+        <v>1.031631067977839</v>
       </c>
       <c r="M19">
-        <v>1.026945326120208</v>
+        <v>1.051173553037346</v>
       </c>
       <c r="N19">
-        <v>1.006221714586341</v>
+        <v>1.015388246613209</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9782827943057643</v>
+        <v>1.027867903968174</v>
       </c>
       <c r="D20">
-        <v>1.006885043244302</v>
+        <v>1.037249070335998</v>
       </c>
       <c r="E20">
-        <v>0.9886226958904804</v>
+        <v>1.027954443352489</v>
       </c>
       <c r="F20">
-        <v>1.011579659252708</v>
+        <v>1.047547748450366</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042283960884661</v>
+        <v>1.036216916354615</v>
       </c>
       <c r="J20">
-        <v>1.006677331365598</v>
+        <v>1.034119269141586</v>
       </c>
       <c r="K20">
-        <v>1.020807898285581</v>
+        <v>1.04061825300654</v>
       </c>
       <c r="L20">
-        <v>1.002868595765549</v>
+        <v>1.031356333464536</v>
       </c>
       <c r="M20">
-        <v>1.025421905104061</v>
+        <v>1.050881436130625</v>
       </c>
       <c r="N20">
-        <v>1.005731956242001</v>
+        <v>1.015295240106021</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9711573077333009</v>
+        <v>1.026568981206931</v>
       </c>
       <c r="D21">
-        <v>1.001546922626002</v>
+        <v>1.036259699258018</v>
       </c>
       <c r="E21">
-        <v>0.9829082641518755</v>
+        <v>1.026848108432137</v>
       </c>
       <c r="F21">
-        <v>1.005474874343153</v>
+        <v>1.046388830685668</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039933119394647</v>
+        <v>1.035903378332691</v>
       </c>
       <c r="J21">
-        <v>1.001912463778508</v>
+        <v>1.033223413988367</v>
       </c>
       <c r="K21">
-        <v>1.016499047230629</v>
+        <v>1.03983887115318</v>
       </c>
       <c r="L21">
-        <v>0.998220844589215</v>
+        <v>1.030462642583295</v>
       </c>
       <c r="M21">
-        <v>1.020353260644002</v>
+        <v>1.049930729970796</v>
       </c>
       <c r="N21">
-        <v>1.004101463356608</v>
+        <v>1.01499240457207</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9665445845130373</v>
+        <v>1.025752132071722</v>
       </c>
       <c r="D22">
-        <v>0.9980968918594981</v>
+        <v>1.035637228314008</v>
       </c>
       <c r="E22">
-        <v>0.9792193811719211</v>
+        <v>1.026152773989001</v>
       </c>
       <c r="F22">
-        <v>1.001531443794279</v>
+        <v>1.045660043337849</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038398068176606</v>
+        <v>1.03570432016442</v>
       </c>
       <c r="J22">
-        <v>0.998826783461273</v>
+        <v>1.032659470887818</v>
       </c>
       <c r="K22">
-        <v>1.013706144203118</v>
+        <v>1.039347749744975</v>
       </c>
       <c r="L22">
-        <v>0.9952140607733798</v>
+        <v>1.029900356015168</v>
       </c>
       <c r="M22">
-        <v>1.017072623409522</v>
+        <v>1.049332210637749</v>
       </c>
       <c r="N22">
-        <v>1.003045359103651</v>
+        <v>1.014801644796063</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9690029871825832</v>
+        <v>1.026185175373226</v>
       </c>
       <c r="D23">
-        <v>0.9999350470991945</v>
+        <v>1.035967251256062</v>
       </c>
       <c r="E23">
-        <v>0.9811843977309422</v>
+        <v>1.026521359230097</v>
       </c>
       <c r="F23">
-        <v>1.003632286543122</v>
+        <v>1.046046399715076</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039217401801793</v>
+        <v>1.035810027103038</v>
       </c>
       <c r="J23">
-        <v>1.000471408213733</v>
+        <v>1.032958492774691</v>
       </c>
       <c r="K23">
-        <v>1.015194949496291</v>
+        <v>1.039608206217013</v>
       </c>
       <c r="L23">
-        <v>0.9968163450109385</v>
+        <v>1.030198471672406</v>
       </c>
       <c r="M23">
-        <v>1.018820977007572</v>
+        <v>1.049649570405062</v>
       </c>
       <c r="N23">
-        <v>1.003608264305333</v>
+        <v>1.014902803859098</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9784001206227035</v>
+        <v>1.027889677897242</v>
       </c>
       <c r="D24">
-        <v>1.006973022081799</v>
+        <v>1.037265650269487</v>
       </c>
       <c r="E24">
-        <v>0.9887169514584669</v>
+        <v>1.027972995684454</v>
       </c>
       <c r="F24">
-        <v>1.011680309244908</v>
+        <v>1.047567175687507</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042322444106227</v>
+        <v>1.036222140245873</v>
       </c>
       <c r="J24">
-        <v>1.006755763951641</v>
+        <v>1.034134276731998</v>
       </c>
       <c r="K24">
-        <v>1.020878780295986</v>
+        <v>1.040631300940843</v>
       </c>
       <c r="L24">
-        <v>1.002945150355088</v>
+        <v>1.031371309776747</v>
       </c>
       <c r="M24">
-        <v>1.025505364129759</v>
+        <v>1.050897361772295</v>
       </c>
       <c r="N24">
-        <v>1.005758790806768</v>
+        <v>1.015300311174396</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9887772815696604</v>
+        <v>1.029866989880697</v>
       </c>
       <c r="D25">
-        <v>1.014763971792781</v>
+        <v>1.038770573432945</v>
       </c>
       <c r="E25">
-        <v>0.9970746160429355</v>
+        <v>1.02965869596433</v>
       </c>
       <c r="F25">
-        <v>1.020598480835408</v>
+        <v>1.049331397895954</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045693610811978</v>
+        <v>1.036691998024648</v>
       </c>
       <c r="J25">
-        <v>1.013688329020031</v>
+        <v>1.035495752607322</v>
       </c>
       <c r="K25">
-        <v>1.027137339208698</v>
+        <v>1.041813796220098</v>
       </c>
       <c r="L25">
-        <v>1.009718515212326</v>
+        <v>1.032730651530097</v>
       </c>
       <c r="M25">
-        <v>1.032885231016299</v>
+        <v>1.052342000362723</v>
       </c>
       <c r="N25">
-        <v>1.008129904595303</v>
+        <v>1.01576005431269</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_244/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_244/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031443603156359</v>
+        <v>0.9966769956112498</v>
       </c>
       <c r="D2">
-        <v>1.039969453658163</v>
+        <v>1.020705800035491</v>
       </c>
       <c r="E2">
-        <v>1.031004155229597</v>
+        <v>1.003465135077056</v>
       </c>
       <c r="F2">
-        <v>1.050738102137029</v>
+        <v>1.027407702022724</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037060002326932</v>
+        <v>1.048210956985594</v>
       </c>
       <c r="J2">
-        <v>1.036579299383502</v>
+        <v>1.018957553482855</v>
       </c>
       <c r="K2">
-        <v>1.042753132114885</v>
+        <v>1.031884014347441</v>
       </c>
       <c r="L2">
-        <v>1.033813528208025</v>
+        <v>1.014876405236478</v>
       </c>
       <c r="M2">
-        <v>1.053491546320871</v>
+        <v>1.038497965847005</v>
       </c>
       <c r="N2">
-        <v>1.016125504902895</v>
+        <v>1.009930776095377</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032588110826149</v>
+        <v>1.002215375717594</v>
       </c>
       <c r="D3">
-        <v>1.04083911454737</v>
+        <v>1.024875928181826</v>
       </c>
       <c r="E3">
-        <v>1.03198163788482</v>
+        <v>1.007960218327317</v>
       </c>
       <c r="F3">
-        <v>1.051759249168251</v>
+        <v>1.032191256671882</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037323290466817</v>
+        <v>1.049946178920395</v>
       </c>
       <c r="J3">
-        <v>1.037364691446546</v>
+        <v>1.022645829009041</v>
       </c>
       <c r="K3">
-        <v>1.043432964176908</v>
+        <v>1.035200111101394</v>
       </c>
       <c r="L3">
-        <v>1.034599030524216</v>
+        <v>1.01849224986229</v>
       </c>
       <c r="M3">
-        <v>1.054324662406226</v>
+        <v>1.042428168580931</v>
       </c>
       <c r="N3">
-        <v>1.016390138025093</v>
+        <v>1.011190385913002</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03332857581301</v>
+        <v>1.005713974956769</v>
       </c>
       <c r="D4">
-        <v>1.041401459332506</v>
+        <v>1.027511659159664</v>
       </c>
       <c r="E4">
-        <v>1.032614396645437</v>
+        <v>1.010806155409626</v>
       </c>
       <c r="F4">
-        <v>1.052419888452915</v>
+        <v>1.03521693388484</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037491843822578</v>
+        <v>1.051028178810585</v>
       </c>
       <c r="J4">
-        <v>1.037872267439767</v>
+        <v>1.024972637499302</v>
       </c>
       <c r="K4">
-        <v>1.043871840602556</v>
+        <v>1.037289005386373</v>
       </c>
       <c r="L4">
-        <v>1.035106953446458</v>
+        <v>1.020775885960083</v>
       </c>
       <c r="M4">
-        <v>1.054863026032898</v>
+        <v>1.044908118503774</v>
       </c>
       <c r="N4">
-        <v>1.016561042584708</v>
+        <v>1.011984544981091</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033639842455116</v>
+        <v>1.007165279661242</v>
       </c>
       <c r="D5">
-        <v>1.041637777062622</v>
+        <v>1.028605293837231</v>
       </c>
       <c r="E5">
-        <v>1.032880471333073</v>
+        <v>1.011988190899239</v>
       </c>
       <c r="F5">
-        <v>1.05269759461534</v>
+        <v>1.036472913210223</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03756226984118</v>
+        <v>1.051473564155644</v>
       </c>
       <c r="J5">
-        <v>1.038085503001106</v>
+        <v>1.025937066848109</v>
       </c>
       <c r="K5">
-        <v>1.044056100009341</v>
+        <v>1.038154051818368</v>
       </c>
       <c r="L5">
-        <v>1.035320400754291</v>
+        <v>1.021723023576183</v>
       </c>
       <c r="M5">
-        <v>1.055089182174452</v>
+        <v>1.045936123585807</v>
       </c>
       <c r="N5">
-        <v>1.016632811696215</v>
+        <v>1.012313588460354</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033692104067035</v>
+        <v>1.007407840471645</v>
       </c>
       <c r="D6">
-        <v>1.0416774504505</v>
+        <v>1.028788089730865</v>
       </c>
       <c r="E6">
-        <v>1.032925150137057</v>
+        <v>1.012185832704189</v>
       </c>
       <c r="F6">
-        <v>1.052744221142784</v>
+        <v>1.03668287663655</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037574069237854</v>
+        <v>1.051547797826978</v>
       </c>
       <c r="J6">
-        <v>1.038121297438294</v>
+        <v>1.026098207034614</v>
       </c>
       <c r="K6">
-        <v>1.044087023653026</v>
+        <v>1.038298540793579</v>
       </c>
       <c r="L6">
-        <v>1.035356234606629</v>
+        <v>1.021881309972611</v>
       </c>
       <c r="M6">
-        <v>1.055127144704022</v>
+        <v>1.046107891488996</v>
       </c>
       <c r="N6">
-        <v>1.016644857404123</v>
+        <v>1.012368558655662</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033332735069442</v>
+        <v>1.005733442899427</v>
       </c>
       <c r="D7">
-        <v>1.041404617383286</v>
+        <v>1.027526328322996</v>
       </c>
       <c r="E7">
-        <v>1.032617951701081</v>
+        <v>1.010822005613097</v>
       </c>
       <c r="F7">
-        <v>1.052423599280742</v>
+        <v>1.03523377844205</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037492786563199</v>
+        <v>1.051034166990206</v>
       </c>
       <c r="J7">
-        <v>1.037875117290415</v>
+        <v>1.02498557762656</v>
       </c>
       <c r="K7">
-        <v>1.043874303645444</v>
+        <v>1.037300615131535</v>
       </c>
       <c r="L7">
-        <v>1.035109805867638</v>
+        <v>1.02078859169724</v>
       </c>
       <c r="M7">
-        <v>1.054866048617893</v>
+        <v>1.044921911283298</v>
       </c>
       <c r="N7">
-        <v>1.016562001878132</v>
+        <v>1.011988960388004</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031830417859163</v>
+        <v>0.998566877842973</v>
       </c>
       <c r="D8">
-        <v>1.040263439074016</v>
+        <v>1.022128431416945</v>
       </c>
       <c r="E8">
-        <v>1.031334445889014</v>
+        <v>1.004997627202079</v>
       </c>
       <c r="F8">
-        <v>1.051083226575734</v>
+        <v>1.029039140690454</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03714935685155</v>
+        <v>1.048806007247716</v>
       </c>
       <c r="J8">
-        <v>1.036844855931184</v>
+        <v>1.020216733759279</v>
       </c>
       <c r="K8">
-        <v>1.042983095843988</v>
+        <v>1.033016774793173</v>
       </c>
       <c r="L8">
-        <v>1.034079064906447</v>
+        <v>1.016110325345717</v>
       </c>
       <c r="M8">
-        <v>1.053773250516052</v>
+        <v>1.039839616599731</v>
       </c>
       <c r="N8">
-        <v>1.016215007405816</v>
+        <v>1.010360905494086</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029182269696606</v>
+        <v>0.9852447437954996</v>
       </c>
       <c r="D9">
-        <v>1.038249599761145</v>
+        <v>1.012109815088207</v>
       </c>
       <c r="E9">
-        <v>1.029074744644662</v>
+        <v>0.9942248589089235</v>
       </c>
       <c r="F9">
-        <v>1.048720466072182</v>
+        <v>1.017559119460074</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036530318145549</v>
+        <v>1.04455359290664</v>
       </c>
       <c r="J9">
-        <v>1.035024602155403</v>
+        <v>1.011329528077164</v>
       </c>
       <c r="K9">
-        <v>1.041404856476353</v>
+        <v>1.025009427517367</v>
       </c>
       <c r="L9">
-        <v>1.032260080235918</v>
+        <v>1.007412333861367</v>
       </c>
       <c r="M9">
-        <v>1.051842098878015</v>
+        <v>1.030373594116214</v>
       </c>
       <c r="N9">
-        <v>1.01560102435885</v>
+        <v>1.007323323417196</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027416183114159</v>
+        <v>0.9758331962248733</v>
       </c>
       <c r="D10">
-        <v>1.036905066488834</v>
+        <v>1.005048772692582</v>
       </c>
       <c r="E10">
-        <v>1.027569608114961</v>
+        <v>0.986655990072323</v>
       </c>
       <c r="F10">
-        <v>1.047144713396352</v>
+        <v>1.009479191011178</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036108302167639</v>
+        <v>1.041478769674778</v>
       </c>
       <c r="J10">
-        <v>1.033807849717614</v>
+        <v>1.005039574692138</v>
       </c>
       <c r="K10">
-        <v>1.040347434480953</v>
+        <v>1.019327464425032</v>
       </c>
       <c r="L10">
-        <v>1.031045600392612</v>
+        <v>1.001270428181217</v>
       </c>
       <c r="M10">
-        <v>1.050550960147769</v>
+        <v>1.023679379259238</v>
       </c>
       <c r="N10">
-        <v>1.015189995581772</v>
+        <v>1.005171586674326</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026651277011971</v>
+        <v>0.9716162778969257</v>
       </c>
       <c r="D11">
-        <v>1.036322399753142</v>
+        <v>1.001890454374029</v>
       </c>
       <c r="E11">
-        <v>1.026918179034678</v>
+        <v>0.9832757575638201</v>
       </c>
       <c r="F11">
-        <v>1.04646225529266</v>
+        <v>1.005867621910552</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035923353211542</v>
+        <v>1.040085316309695</v>
       </c>
       <c r="J11">
-        <v>1.033280205961725</v>
+        <v>1.002219454121182</v>
       </c>
       <c r="K11">
-        <v>1.039888308530279</v>
+        <v>1.016776807337453</v>
       </c>
       <c r="L11">
-        <v>1.030519280193435</v>
+        <v>0.998520114027054</v>
       </c>
       <c r="M11">
-        <v>1.049991001977276</v>
+        <v>1.020679725367886</v>
       </c>
       <c r="N11">
-        <v>1.015011609822848</v>
+        <v>1.004206526088586</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026367128463902</v>
+        <v>0.9700271462046766</v>
       </c>
       <c r="D12">
-        <v>1.036105899832338</v>
+        <v>1.000701204955372</v>
       </c>
       <c r="E12">
-        <v>1.026676254633032</v>
+        <v>0.9820036979833734</v>
       </c>
       <c r="F12">
-        <v>1.046208737570287</v>
+        <v>1.004508063609489</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035854322333725</v>
+        <v>1.039557923434887</v>
       </c>
       <c r="J12">
-        <v>1.033084097508294</v>
+        <v>1.001156502067522</v>
       </c>
       <c r="K12">
-        <v>1.039717579805325</v>
+        <v>1.015814983303958</v>
       </c>
       <c r="L12">
-        <v>1.03032371447963</v>
+        <v>0.9974839957216355</v>
       </c>
       <c r="M12">
-        <v>1.049782875065798</v>
+        <v>1.019549402886943</v>
       </c>
       <c r="N12">
-        <v>1.014945288052013</v>
+        <v>1.003842740547386</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026428080599342</v>
+        <v>0.9703690767867951</v>
       </c>
       <c r="D13">
-        <v>1.036152343041364</v>
+        <v>1.000957048306109</v>
       </c>
       <c r="E13">
-        <v>1.026728146192968</v>
+        <v>0.9822773229797467</v>
       </c>
       <c r="F13">
-        <v>1.046263119001361</v>
+        <v>1.004800529451666</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035869144743628</v>
+        <v>1.039671502783664</v>
       </c>
       <c r="J13">
-        <v>1.033126168789733</v>
+        <v>1.001385223172487</v>
       </c>
       <c r="K13">
-        <v>1.039754210249857</v>
+        <v>1.016021963353599</v>
       </c>
       <c r="L13">
-        <v>1.030365667026981</v>
+        <v>0.9977069191403902</v>
       </c>
       <c r="M13">
-        <v>1.049827525041789</v>
+        <v>1.019792606269958</v>
       </c>
       <c r="N13">
-        <v>1.01495951707552</v>
+        <v>1.003921019753914</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026627789791531</v>
+        <v>0.9714853936445518</v>
       </c>
       <c r="D14">
-        <v>1.036304505262944</v>
+        <v>1.001792485118767</v>
       </c>
       <c r="E14">
-        <v>1.026898180565412</v>
+        <v>0.9831709514494121</v>
       </c>
       <c r="F14">
-        <v>1.046441299897521</v>
+        <v>1.005755615520265</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035917653883103</v>
+        <v>1.040041924753727</v>
       </c>
       <c r="J14">
-        <v>1.033263997987818</v>
+        <v>1.002131910698057</v>
       </c>
       <c r="K14">
-        <v>1.039874199896064</v>
+        <v>1.016697601379141</v>
       </c>
       <c r="L14">
-        <v>1.030503116039285</v>
+        <v>0.998434769942834</v>
       </c>
       <c r="M14">
-        <v>1.049973800867363</v>
+        <v>1.020586627087256</v>
       </c>
       <c r="N14">
-        <v>1.015006128896965</v>
+        <v>1.00417656585762</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026750833413268</v>
+        <v>0.972170127517805</v>
       </c>
       <c r="D15">
-        <v>1.036398247942362</v>
+        <v>1.002305060543826</v>
       </c>
       <c r="E15">
-        <v>1.027002950351564</v>
+        <v>0.9837193276950507</v>
       </c>
       <c r="F15">
-        <v>1.046551080050304</v>
+        <v>1.006341647882287</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035947497889527</v>
+        <v>1.04026883991212</v>
       </c>
       <c r="J15">
-        <v>1.033348903442531</v>
+        <v>1.002589895138452</v>
       </c>
       <c r="K15">
-        <v>1.039948104436003</v>
+        <v>1.017111950667891</v>
       </c>
       <c r="L15">
-        <v>1.030587794024922</v>
+        <v>0.9988812698344145</v>
       </c>
       <c r="M15">
-        <v>1.050063908529631</v>
+        <v>1.02107368424273</v>
       </c>
       <c r="N15">
-        <v>1.015034839844418</v>
+        <v>1.004333301692081</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027466943516504</v>
+        <v>0.9761099498852246</v>
       </c>
       <c r="D16">
-        <v>1.036943726137846</v>
+        <v>1.005256175300765</v>
       </c>
       <c r="E16">
-        <v>1.027612847704257</v>
+        <v>0.986878071339949</v>
       </c>
       <c r="F16">
-        <v>1.047190002771233</v>
+        <v>1.009716408598494</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03612052998293</v>
+        <v>1.041569901384229</v>
       </c>
       <c r="J16">
-        <v>1.033842851171138</v>
+        <v>1.005224625430696</v>
       </c>
       <c r="K16">
-        <v>1.040377878684606</v>
+        <v>1.019494771185393</v>
       </c>
       <c r="L16">
-        <v>1.031080521167991</v>
+        <v>1.001450970202301</v>
       </c>
       <c r="M16">
-        <v>1.050588104021309</v>
+        <v>1.023876249672611</v>
       </c>
       <c r="N16">
-        <v>1.015201825859334</v>
+        <v>1.00523490624715</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027916091511164</v>
+        <v>0.9785423554854711</v>
       </c>
       <c r="D17">
-        <v>1.037285762904127</v>
+        <v>1.007079682394866</v>
       </c>
       <c r="E17">
-        <v>1.027995501530264</v>
+        <v>0.9888312247257663</v>
       </c>
       <c r="F17">
-        <v>1.047590742573713</v>
+        <v>1.011802332934291</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036228475834881</v>
+        <v>1.042369087089607</v>
       </c>
       <c r="J17">
-        <v>1.034152481771146</v>
+        <v>1.006850846632315</v>
       </c>
       <c r="K17">
-        <v>1.040647128428707</v>
+        <v>1.020964707471958</v>
       </c>
       <c r="L17">
-        <v>1.031389477096521</v>
+        <v>1.003037958587417</v>
       </c>
       <c r="M17">
-        <v>1.050916680420765</v>
+        <v>1.025606541378819</v>
       </c>
       <c r="N17">
-        <v>1.015306462566801</v>
+        <v>1.005791321742323</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028178054770012</v>
+        <v>0.9799475769522781</v>
       </c>
       <c r="D18">
-        <v>1.037485221350229</v>
+        <v>1.00813364267228</v>
       </c>
       <c r="E18">
-        <v>1.028218726488903</v>
+        <v>0.9899606160142562</v>
       </c>
       <c r="F18">
-        <v>1.047824473180114</v>
+        <v>1.013008202475074</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036291225283121</v>
+        <v>1.042829287901922</v>
       </c>
       <c r="J18">
-        <v>1.034333008657705</v>
+        <v>1.007790147419828</v>
       </c>
       <c r="K18">
-        <v>1.040804056157433</v>
+        <v>1.021813440424477</v>
       </c>
       <c r="L18">
-        <v>1.031569643209221</v>
+        <v>1.00395492209199</v>
       </c>
       <c r="M18">
-        <v>1.051108247954979</v>
+        <v>1.026606112587111</v>
       </c>
       <c r="N18">
-        <v>1.015367456070099</v>
+        <v>1.006112674547639</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028267374604541</v>
+        <v>0.9804244645117109</v>
       </c>
       <c r="D19">
-        <v>1.037553223761045</v>
+        <v>1.008491405071531</v>
       </c>
       <c r="E19">
-        <v>1.028294845441132</v>
+        <v>0.9903440685367331</v>
       </c>
       <c r="F19">
-        <v>1.047904166888578</v>
+        <v>1.013417570239083</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036312585005646</v>
+        <v>1.042985209105425</v>
       </c>
       <c r="J19">
-        <v>1.034394550888987</v>
+        <v>1.008108883286297</v>
       </c>
       <c r="K19">
-        <v>1.040857543927865</v>
+        <v>1.022101392109625</v>
       </c>
       <c r="L19">
-        <v>1.031631067977839</v>
+        <v>1.004266132843977</v>
       </c>
       <c r="M19">
-        <v>1.051173553037346</v>
+        <v>1.026945326120209</v>
       </c>
       <c r="N19">
-        <v>1.015388246613209</v>
+        <v>1.006221714586341</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027867903968174</v>
+        <v>0.9782827943057636</v>
       </c>
       <c r="D20">
-        <v>1.037249070335998</v>
+        <v>1.006885043244301</v>
       </c>
       <c r="E20">
-        <v>1.027954443352489</v>
+        <v>0.9886226958904797</v>
       </c>
       <c r="F20">
-        <v>1.047547748450366</v>
+        <v>1.011579659252707</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036216916354615</v>
+        <v>1.04228396088466</v>
       </c>
       <c r="J20">
-        <v>1.034119269141586</v>
+        <v>1.006677331365597</v>
       </c>
       <c r="K20">
-        <v>1.04061825300654</v>
+        <v>1.020807898285581</v>
       </c>
       <c r="L20">
-        <v>1.031356333464536</v>
+        <v>1.002868595765548</v>
       </c>
       <c r="M20">
-        <v>1.050881436130625</v>
+        <v>1.02542190510406</v>
       </c>
       <c r="N20">
-        <v>1.015295240106021</v>
+        <v>1.005731956242</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026568981206931</v>
+        <v>0.9711573077333002</v>
       </c>
       <c r="D21">
-        <v>1.036259699258018</v>
+        <v>1.001546922626002</v>
       </c>
       <c r="E21">
-        <v>1.026848108432137</v>
+        <v>0.9829082641518748</v>
       </c>
       <c r="F21">
-        <v>1.046388830685668</v>
+        <v>1.005474874343152</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035903378332691</v>
+        <v>1.039933119394646</v>
       </c>
       <c r="J21">
-        <v>1.033223413988367</v>
+        <v>1.001912463778507</v>
       </c>
       <c r="K21">
-        <v>1.03983887115318</v>
+        <v>1.016499047230629</v>
       </c>
       <c r="L21">
-        <v>1.030462642583295</v>
+        <v>0.9982208445892143</v>
       </c>
       <c r="M21">
-        <v>1.049930729970796</v>
+        <v>1.020353260644002</v>
       </c>
       <c r="N21">
-        <v>1.01499240457207</v>
+        <v>1.004101463356608</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025752132071722</v>
+        <v>0.9665445845130388</v>
       </c>
       <c r="D22">
-        <v>1.035637228314008</v>
+        <v>0.9980968918594995</v>
       </c>
       <c r="E22">
-        <v>1.026152773989001</v>
+        <v>0.9792193811719222</v>
       </c>
       <c r="F22">
-        <v>1.045660043337849</v>
+        <v>1.00153144379428</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03570432016442</v>
+        <v>1.038398068176606</v>
       </c>
       <c r="J22">
-        <v>1.032659470887818</v>
+        <v>0.9988267834612744</v>
       </c>
       <c r="K22">
-        <v>1.039347749744975</v>
+        <v>1.013706144203119</v>
       </c>
       <c r="L22">
-        <v>1.029900356015168</v>
+        <v>0.995214060773381</v>
       </c>
       <c r="M22">
-        <v>1.049332210637749</v>
+        <v>1.017072623409524</v>
       </c>
       <c r="N22">
-        <v>1.014801644796063</v>
+        <v>1.003045359103651</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026185175373226</v>
+        <v>0.9690029871825832</v>
       </c>
       <c r="D23">
-        <v>1.035967251256062</v>
+        <v>0.9999350470991943</v>
       </c>
       <c r="E23">
-        <v>1.026521359230097</v>
+        <v>0.981184397730942</v>
       </c>
       <c r="F23">
-        <v>1.046046399715076</v>
+        <v>1.003632286543122</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035810027103038</v>
+        <v>1.039217401801793</v>
       </c>
       <c r="J23">
-        <v>1.032958492774691</v>
+        <v>1.000471408213733</v>
       </c>
       <c r="K23">
-        <v>1.039608206217013</v>
+        <v>1.015194949496291</v>
       </c>
       <c r="L23">
-        <v>1.030198471672406</v>
+        <v>0.9968163450109382</v>
       </c>
       <c r="M23">
-        <v>1.049649570405062</v>
+        <v>1.018820977007572</v>
       </c>
       <c r="N23">
-        <v>1.014902803859098</v>
+        <v>1.003608264305333</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027889677897242</v>
+        <v>0.9784001206227027</v>
       </c>
       <c r="D24">
-        <v>1.037265650269487</v>
+        <v>1.006973022081798</v>
       </c>
       <c r="E24">
-        <v>1.027972995684454</v>
+        <v>0.9887169514584663</v>
       </c>
       <c r="F24">
-        <v>1.047567175687507</v>
+        <v>1.011680309244907</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036222140245873</v>
+        <v>1.042322444106226</v>
       </c>
       <c r="J24">
-        <v>1.034134276731998</v>
+        <v>1.006755763951641</v>
       </c>
       <c r="K24">
-        <v>1.040631300940843</v>
+        <v>1.020878780295986</v>
       </c>
       <c r="L24">
-        <v>1.031371309776747</v>
+        <v>1.002945150355087</v>
       </c>
       <c r="M24">
-        <v>1.050897361772295</v>
+        <v>1.025505364129758</v>
       </c>
       <c r="N24">
-        <v>1.015300311174396</v>
+        <v>1.005758790806767</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029866989880697</v>
+        <v>0.9887772815696609</v>
       </c>
       <c r="D25">
-        <v>1.038770573432945</v>
+        <v>1.014763971792782</v>
       </c>
       <c r="E25">
-        <v>1.02965869596433</v>
+        <v>0.9970746160429361</v>
       </c>
       <c r="F25">
-        <v>1.049331397895954</v>
+        <v>1.020598480835408</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036691998024648</v>
+        <v>1.045693610811978</v>
       </c>
       <c r="J25">
-        <v>1.035495752607322</v>
+        <v>1.013688329020032</v>
       </c>
       <c r="K25">
-        <v>1.041813796220098</v>
+        <v>1.027137339208698</v>
       </c>
       <c r="L25">
-        <v>1.032730651530097</v>
+        <v>1.009718515212326</v>
       </c>
       <c r="M25">
-        <v>1.052342000362723</v>
+        <v>1.0328852310163</v>
       </c>
       <c r="N25">
-        <v>1.01576005431269</v>
+        <v>1.008129904595303</v>
       </c>
     </row>
   </sheetData>
